--- a/result/problem_1/results.xlsx
+++ b/result/problem_1/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dmlf</t>
+          <t>meonf</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>293432</v>
+        <v>289907</v>
       </c>
       <c r="E2" t="n">
-        <v>169145</v>
+        <v>151246</v>
       </c>
       <c r="F2" t="n">
-        <v>547411</v>
+        <v>518501</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -533,25 +533,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>618722</v>
+        <v>538902</v>
       </c>
       <c r="J2" t="n">
-        <v>71874</v>
+        <v>73629</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>653422</v>
+        <v>547875</v>
       </c>
       <c r="M2" t="n">
-        <v>8890</v>
+        <v>9340</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2362896</v>
+        <v>2129400</v>
       </c>
     </row>
     <row r="3">
@@ -560,7 +560,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dmsf</t>
+          <t>dmlf</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -707,95 +707,46 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>msf</t>
+          <t>erf</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>521700</v>
+        <v>490091</v>
       </c>
       <c r="E6" t="n">
-        <v>211054</v>
+        <v>239647</v>
       </c>
       <c r="F6" t="n">
-        <v>688928</v>
+        <v>740194</v>
       </c>
       <c r="G6" t="n">
-        <v>3926</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6868</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>616679</v>
+        <v>771824</v>
       </c>
       <c r="J6" t="n">
-        <v>96189</v>
+        <v>92936</v>
       </c>
       <c r="K6" t="n">
-        <v>3225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>650950</v>
+        <v>783631</v>
       </c>
       <c r="M6" t="n">
-        <v>112480</v>
+        <v>17615</v>
       </c>
       <c r="N6" t="n">
-        <v>16862</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2928861</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>erf</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>490091</v>
-      </c>
-      <c r="E7" t="n">
-        <v>239647</v>
-      </c>
-      <c r="F7" t="n">
-        <v>740194</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>771824</v>
-      </c>
-      <c r="J7" t="n">
-        <v>92936</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>783631</v>
-      </c>
-      <c r="M7" t="n">
-        <v>17615</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
         <v>3135938</v>
       </c>
     </row>
